--- a/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
+++ b/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -174,9 +174,6 @@
     <t>Planejamento de Ação Corretiva</t>
   </si>
   <si>
-    <t>Escalonamento da Ação Corretiva &gt; Seção 6.Comunicações</t>
-  </si>
-  <si>
     <t>Atributos de Processo</t>
   </si>
   <si>
@@ -341,7 +338,19 @@
     </r>
   </si>
   <si>
-    <t>Políticas &gt; Seção 3.Políticas</t>
+    <t>GQA - Processo &gt; 6. Comunicações</t>
+  </si>
+  <si>
+    <t>GQA - Processo &gt; 3. Papéis</t>
+  </si>
+  <si>
+    <t>GQA - Processo &gt; 7. Macro Fluxo</t>
+  </si>
+  <si>
+    <t>GQA - Processo &gt; 3.Políticas</t>
+  </si>
+  <si>
+    <t>Escalonamento da Ação Corretiva &gt; 6.Comunicações</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1468,7 @@
   <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1683,7 +1692,7 @@
     </row>
     <row r="29" spans="1:5" s="25" customFormat="1">
       <c r="A29" s="23" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="49" t="s">
@@ -1726,7 +1735,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -1742,7 +1751,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
@@ -1750,7 +1759,7 @@
     </row>
     <row r="38" spans="1:5" ht="63.75">
       <c r="A38" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="46"/>
@@ -1758,7 +1767,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="49" t="s">
@@ -1800,16 +1809,20 @@
     </row>
     <row r="45" spans="1:5" ht="42" customHeight="1">
       <c r="A45" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="23"/>
+      <c r="A46" s="23" t="s">
+        <v>38</v>
+      </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
+      <c r="C46" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:5">
@@ -1846,16 +1859,20 @@
     </row>
     <row r="52" spans="1:4" ht="64.5">
       <c r="A52" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
       <c r="D52" s="48"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="23"/>
+      <c r="A53" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
+      <c r="C53" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4">
@@ -1892,16 +1909,20 @@
     </row>
     <row r="59" spans="1:4" ht="58.5" customHeight="1">
       <c r="A59" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="23"/>
+      <c r="A60" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
+      <c r="C60" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4">
@@ -1938,7 +1959,7 @@
     </row>
     <row r="66" spans="1:4" ht="69.75" customHeight="1">
       <c r="A66" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -1984,16 +2005,20 @@
     </row>
     <row r="73" spans="1:4" ht="66" customHeight="1">
       <c r="A73" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
       <c r="D73" s="48"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="23"/>
+      <c r="A74" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
+      <c r="C74" s="49" t="s">
+        <v>20</v>
+      </c>
       <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4">
@@ -2030,7 +2055,7 @@
     </row>
     <row r="80" spans="1:4" ht="52.5" customHeight="1">
       <c r="A80" s="44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -2083,6 +2108,10 @@
     <hyperlink ref="C28" r:id="rId2"/>
     <hyperlink ref="C29" r:id="rId3"/>
     <hyperlink ref="C39" r:id="rId4"/>
+    <hyperlink ref="C74" r:id="rId5"/>
+    <hyperlink ref="C60" r:id="rId6"/>
+    <hyperlink ref="C53" r:id="rId7"/>
+    <hyperlink ref="C46" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
+++ b/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>INSTRUÇÕES</t>
   </si>
@@ -97,9 +97,6 @@
     </r>
   </si>
   <si>
-    <t>Checklist de Avaliação&gt;Seção 5</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -351,6 +348,12 @@
   </si>
   <si>
     <t>Escalonamento da Ação Corretiva &gt; 6.Comunicações</t>
+  </si>
+  <si>
+    <t>Especificação da Garantia da Qualidade</t>
+  </si>
+  <si>
+    <t>Documento de Integrantes</t>
   </si>
 </sst>
 </file>
@@ -1467,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1527,11 +1530,11 @@
     </row>
     <row r="6" spans="1:5" s="25" customFormat="1">
       <c r="A6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="49" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="24"/>
     </row>
@@ -1562,7 +1565,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="27"/>
       <c r="B11" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -1570,16 +1573,20 @@
     </row>
     <row r="12" spans="1:5" ht="78.75" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:5" s="25" customFormat="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:5" s="25" customFormat="1">
@@ -1609,7 +1616,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="27"/>
       <c r="B18" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -1617,7 +1624,7 @@
     </row>
     <row r="19" spans="1:5" ht="51">
       <c r="A19" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -1625,11 +1632,11 @@
     </row>
     <row r="20" spans="1:5" s="25" customFormat="1">
       <c r="A20" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -1666,7 +1673,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="27"/>
       <c r="B26" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -1674,7 +1681,7 @@
     </row>
     <row r="27" spans="1:5" ht="89.25">
       <c r="A27" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="21"/>
       <c r="C27" s="22"/>
@@ -1682,21 +1689,21 @@
     </row>
     <row r="28" spans="1:5" s="25" customFormat="1">
       <c r="A28" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:5" s="25" customFormat="1">
       <c r="A29" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="24"/>
     </row>
@@ -1721,7 +1728,7 @@
     <row r="33" spans="1:5">
       <c r="A33" s="31"/>
       <c r="B33" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
@@ -1735,7 +1742,7 @@
     </row>
     <row r="35" spans="1:5" ht="15.75">
       <c r="A35" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
@@ -1751,7 +1758,7 @@
     </row>
     <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="43"/>
@@ -1759,7 +1766,7 @@
     </row>
     <row r="38" spans="1:5" ht="63.75">
       <c r="A38" s="44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="45"/>
       <c r="C38" s="46"/>
@@ -1767,11 +1774,11 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="24"/>
     </row>
@@ -1802,14 +1809,14 @@
     <row r="44" spans="1:5">
       <c r="A44" s="23"/>
       <c r="B44" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:5" ht="42" customHeight="1">
       <c r="A45" s="44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="48"/>
@@ -1817,11 +1824,11 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D46" s="24"/>
     </row>
@@ -1852,14 +1859,14 @@
     <row r="51" spans="1:4">
       <c r="A51" s="23"/>
       <c r="B51" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" ht="64.5">
       <c r="A52" s="44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -1867,18 +1874,22 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="23"/>
+      <c r="A54" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
+      <c r="C54" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:4">
@@ -1902,14 +1913,14 @@
     <row r="58" spans="1:4">
       <c r="A58" s="23"/>
       <c r="B58" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="58.5" customHeight="1">
       <c r="A59" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -1917,11 +1928,11 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="24"/>
     </row>
@@ -1952,23 +1963,27 @@
     <row r="65" spans="1:4">
       <c r="A65" s="23"/>
       <c r="B65" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
     </row>
-    <row r="66" spans="1:4" ht="69.75" customHeight="1">
+    <row r="66" spans="1:4" ht="59.25" customHeight="1">
       <c r="A66" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="23"/>
+      <c r="A67" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
+      <c r="C67" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4">
@@ -1998,14 +2013,14 @@
     <row r="72" spans="1:4">
       <c r="A72" s="23"/>
       <c r="B72" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
     </row>
     <row r="73" spans="1:4" ht="66" customHeight="1">
       <c r="A73" s="44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -2013,11 +2028,11 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D74" s="24"/>
     </row>
@@ -2048,23 +2063,27 @@
     <row r="79" spans="1:4">
       <c r="A79" s="23"/>
       <c r="B79" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="29"/>
       <c r="D79" s="29"/>
     </row>
-    <row r="80" spans="1:4" ht="52.5" customHeight="1">
+    <row r="80" spans="1:4" ht="45" customHeight="1">
       <c r="A80" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
       <c r="D80" s="48"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="23"/>
+      <c r="A81" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="B81" s="24"/>
-      <c r="C81" s="24"/>
+      <c r="C81" s="49" t="s">
+        <v>19</v>
+      </c>
       <c r="D81" s="24"/>
     </row>
     <row r="82" spans="1:4">
@@ -2094,7 +2113,7 @@
     <row r="86" spans="1:4">
       <c r="A86" s="23"/>
       <c r="B86" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
@@ -2112,6 +2131,9 @@
     <hyperlink ref="C60" r:id="rId6"/>
     <hyperlink ref="C53" r:id="rId7"/>
     <hyperlink ref="C46" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C81" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
+++ b/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1887,7 +1887,7 @@
         <v>41</v>
       </c>
       <c r="B54" s="24"/>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="24"/>
@@ -1981,7 +1981,7 @@
         <v>41</v>
       </c>
       <c r="B67" s="24"/>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D67" s="24"/>
@@ -2134,6 +2134,8 @@
     <hyperlink ref="C6" r:id="rId9"/>
     <hyperlink ref="C13" r:id="rId10"/>
     <hyperlink ref="C81" r:id="rId11"/>
+    <hyperlink ref="C54" r:id="rId12"/>
+    <hyperlink ref="C67" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
+++ b/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2132,10 +2132,10 @@
     <hyperlink ref="C53" r:id="rId7"/>
     <hyperlink ref="C46" r:id="rId8"/>
     <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C81" r:id="rId11"/>
-    <hyperlink ref="C54" r:id="rId12"/>
-    <hyperlink ref="C67" r:id="rId13"/>
+    <hyperlink ref="C67" r:id="rId10"/>
+    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C81" r:id="rId12"/>
+    <hyperlink ref="C54" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
+++ b/Raiz/Processo/Avaliação/GQA-Avaliação Processo.xlsx
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2124,17 +2124,17 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1"/>
-    <hyperlink ref="C28" r:id="rId2"/>
-    <hyperlink ref="C29" r:id="rId3"/>
-    <hyperlink ref="C39" r:id="rId4"/>
-    <hyperlink ref="C74" r:id="rId5"/>
-    <hyperlink ref="C60" r:id="rId6"/>
-    <hyperlink ref="C53" r:id="rId7"/>
-    <hyperlink ref="C46" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="C67" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C81" r:id="rId12"/>
+    <hyperlink ref="C29" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C67" r:id="rId4"/>
+    <hyperlink ref="C13" r:id="rId5"/>
+    <hyperlink ref="C81" r:id="rId6"/>
+    <hyperlink ref="C28" r:id="rId7"/>
+    <hyperlink ref="C39" r:id="rId8"/>
+    <hyperlink ref="C46" r:id="rId9"/>
+    <hyperlink ref="C53" r:id="rId10"/>
+    <hyperlink ref="C60" r:id="rId11"/>
+    <hyperlink ref="C74" r:id="rId12"/>
     <hyperlink ref="C54" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
